--- a/qPCR/output/FlgResponse_stat.xlsx
+++ b/qPCR/output/FlgResponse_stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\backup\GitHub\Bacillus-Pti5\qPCR\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{634829C1-D72F-4D75-8A07-63D835CAC40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440A6B59-840F-4D69-AD5D-3D677A1EED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B52C28E2-4A9A-431A-A11E-1D14532F869D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B52C28E2-4A9A-431A-A11E-1D14532F869D}"/>
   </bookViews>
   <sheets>
     <sheet name="FlgResponse_stat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="50">
   <si>
     <t>FlgResponse</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -676,12 +679,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,6 +686,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -734,21 +737,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -760,12 +749,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -786,21 +769,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -811,9 +779,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -824,27 +789,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -855,9 +799,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -868,9 +809,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -881,9 +819,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -894,21 +829,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -919,29 +839,102 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -975,9 +968,9 @@
     <tableColumn id="1" xr3:uid="{7A9AD68A-643C-4923-A9C3-0AF1A4B2968B}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{FB85D49E-80F1-4931-B528-57F536309F59}" name="group1"/>
     <tableColumn id="3" xr3:uid="{2384EC8A-0697-4BDB-AF39-59C789216609}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{CEA82B85-D63A-4A4C-B2FA-8E999787F2FC}" name="p" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{6FE183B6-721A-4052-8717-FEE1BCEDFFDB}" name="p.adj" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{68F19B46-5A24-4245-9811-0BD39767C0B8}" name="p.adj.signif" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CEA82B85-D63A-4A4C-B2FA-8E999787F2FC}" name="p" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{6FE183B6-721A-4052-8717-FEE1BCEDFFDB}" name="p.adj" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{68F19B46-5A24-4245-9811-0BD39767C0B8}" name="p.adj.signif" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,8 +983,8 @@
     <tableColumn id="1" xr3:uid="{076CA3A7-CF2A-4364-AFAF-F7D457EA6B4F}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{D6D0D5E7-42A3-4E1B-A5A8-114296F2F3BB}" name="df1"/>
     <tableColumn id="3" xr3:uid="{DB930AA7-1F97-491C-B11F-961D52BD8487}" name="df2"/>
-    <tableColumn id="4" xr3:uid="{0EDF7418-B7FF-4825-8C45-86006492040C}" name="statistic" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{5130A96C-F84F-4BA4-88F6-57AFEE62CA92}" name="p" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{0EDF7418-B7FF-4825-8C45-86006492040C}" name="statistic" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{5130A96C-F84F-4BA4-88F6-57AFEE62CA92}" name="p" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,8 +997,8 @@
     <tableColumn id="1" xr3:uid="{B7ABEEF5-887D-4DD8-B14D-F49656698C12}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{DE2520BC-B23C-4FE1-84C9-82A63EF98A22}" name="df1"/>
     <tableColumn id="3" xr3:uid="{BD89C0CE-0F3D-41D4-9F78-97521F8AF109}" name="df2"/>
-    <tableColumn id="4" xr3:uid="{6F37A451-F4C3-47B2-AEFC-477F1956400A}" name="statistic" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{2A976581-2A60-416A-B7D6-D5D625A37A8B}" name="p" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{6F37A451-F4C3-47B2-AEFC-477F1956400A}" name="statistic" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{2A976581-2A60-416A-B7D6-D5D625A37A8B}" name="p" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1018,40 +1011,40 @@
     <tableColumn id="1" xr3:uid="{996DB0FF-837E-42DA-9D38-73F8C4BC6E38}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{52550873-880E-4E51-8148-A05B6C61EDD4}" name="df1"/>
     <tableColumn id="3" xr3:uid="{3936ED2A-51F0-47DC-95ED-BC899953FD68}" name="df2"/>
-    <tableColumn id="4" xr3:uid="{68857443-C4EA-4756-9EF7-527C8A5539C6}" name="statistic" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{4914E88B-2FB4-4BE4-9CFB-405765A2E543}" name="p" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{68857443-C4EA-4756-9EF7-527C8A5539C6}" name="statistic" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{4914E88B-2FB4-4BE4-9CFB-405765A2E543}" name="p" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B76113CF-5ADA-4AA4-BF6F-313194001E16}" name="Table14" displayName="Table14" ref="B6:H12" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B76113CF-5ADA-4AA4-BF6F-313194001E16}" name="Table14" displayName="Table14" ref="B6:H12" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B6:H12" xr:uid="{B76113CF-5ADA-4AA4-BF6F-313194001E16}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2A6C5751-3626-4C34-A322-4A01630F4872}" name="n"/>
     <tableColumn id="2" xr3:uid="{63D305D0-6108-4C51-BD84-B743F82A18CA}" name="transcript"/>
-    <tableColumn id="3" xr3:uid="{A33771A2-A622-4B24-AC06-930ED8CD51D4}" name="Shapiro_Wilk_BH" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{BF07E73E-F0DC-4990-9753-3E8D4B8D880F}" name="Anderson_Darling_BH" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{45F5E977-4EDB-4360-A96A-EBF4D9E4F14C}" name="Lilliefors_KS_BH" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{52F21629-5B13-4D6C-B003-A044E4121DD5}" name="Jarque_Bera_BH" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{BE7280F0-C5D2-49D8-BFC2-223651D3E4EF}" name="DAgostino_Skewness_BH" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{A33771A2-A622-4B24-AC06-930ED8CD51D4}" name="Shapiro_Wilk_BH" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{BF07E73E-F0DC-4990-9753-3E8D4B8D880F}" name="Anderson_Darling_BH" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{45F5E977-4EDB-4360-A96A-EBF4D9E4F14C}" name="Lilliefors_KS_BH" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{52F21629-5B13-4D6C-B003-A044E4121DD5}" name="Jarque_Bera_BH" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{BE7280F0-C5D2-49D8-BFC2-223651D3E4EF}" name="DAgostino_Skewness_BH" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6D056A27-AFEA-45D5-B705-3EFDCD96CD64}" name="Table15" displayName="Table15" ref="B17:H23" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6D056A27-AFEA-45D5-B705-3EFDCD96CD64}" name="Table15" displayName="Table15" ref="B17:H23" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B17:H23" xr:uid="{6D056A27-AFEA-45D5-B705-3EFDCD96CD64}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{299F2D5F-FF99-4092-92AB-54759EBBCF77}" name="n"/>
     <tableColumn id="2" xr3:uid="{D47AC875-2811-44D0-9D99-9B6692D7F997}" name="transcript"/>
-    <tableColumn id="3" xr3:uid="{BBEAE6CA-4F92-4F09-9698-9E40453C6A8C}" name="Shapiro_Wilk_BH" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{5B9B8A6C-5C8E-4509-BB23-EAAD3DFFE537}" name="Anderson_Darling_BH" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{56D561C6-C80F-41BD-8D0E-257682BAB9B0}" name="Lilliefors_KS_BH" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{D8F2766E-39D6-42B1-948B-ADED066E20DE}" name="Jarque_Bera_BH" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{49BF7EC2-B68E-418F-9268-FBBC939E8A79}" name="DAgostino_Skewness_BH" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{BBEAE6CA-4F92-4F09-9698-9E40453C6A8C}" name="Shapiro_Wilk_BH" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5B9B8A6C-5C8E-4509-BB23-EAAD3DFFE537}" name="Anderson_Darling_BH" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{56D561C6-C80F-41BD-8D0E-257682BAB9B0}" name="Lilliefors_KS_BH" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D8F2766E-39D6-42B1-948B-ADED066E20DE}" name="Jarque_Bera_BH" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{49BF7EC2-B68E-418F-9268-FBBC939E8A79}" name="DAgostino_Skewness_BH" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,8 +1057,8 @@
     <tableColumn id="1" xr3:uid="{DE529FB2-B182-4ECE-BF9B-C3E539B618FA}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{64490AC5-FCD5-4175-9AFD-890FD45946B4}" name="group1"/>
     <tableColumn id="3" xr3:uid="{6A9686B8-6CCC-43C4-A4CC-E1A4D89FCD67}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{86940AA7-0870-4371-B216-ABCD51DE8D49}" name="p" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3A8FF02B-8EF4-4E2F-81FD-5DE30EF98AC0}" name="p.adj" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{86940AA7-0870-4371-B216-ABCD51DE8D49}" name="p" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{3A8FF02B-8EF4-4E2F-81FD-5DE30EF98AC0}" name="p.adj" dataDxfId="38"/>
     <tableColumn id="6" xr3:uid="{20541C29-B964-4C04-93E6-78363FACD027}" name="p.adj.signif"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1079,7 +1072,7 @@
     <tableColumn id="1" xr3:uid="{B642056E-399B-4BBE-A08F-88F04D76A703}" name=".y."/>
     <tableColumn id="2" xr3:uid="{A0D6A75F-87ED-4B36-AC74-1CB38D51666F}" name="group1"/>
     <tableColumn id="3" xr3:uid="{11827700-18D4-4C72-80AE-B47D8F1E4C79}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{EB1EE1BF-CAF5-47C7-92CB-411B2D79A0CD}" name="effsize" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EB1EE1BF-CAF5-47C7-92CB-411B2D79A0CD}" name="effsize" dataDxfId="37"/>
     <tableColumn id="5" xr3:uid="{DEFC26FC-1820-4210-8156-600FE9B345E9}" name="transcript"/>
     <tableColumn id="6" xr3:uid="{4A531A13-43FC-4CBA-A3F1-D19A58162AD7}" name="n1"/>
     <tableColumn id="7" xr3:uid="{EF3B72EA-5A9D-42FC-8971-1093EE7084D6}" name="n2"/>
@@ -1096,7 +1089,7 @@
     <tableColumn id="1" xr3:uid="{897EE8D6-14DB-4660-A0DC-17EF9602D2AF}" name=".y."/>
     <tableColumn id="2" xr3:uid="{BFF841F5-03F6-4F96-981D-77DF91DBE79A}" name="group1"/>
     <tableColumn id="3" xr3:uid="{038A3AAC-42C2-4F8F-B39D-28B11CF775B7}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{399B33A7-10EA-430F-8628-84F55AFE68A9}" name="effsize" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{399B33A7-10EA-430F-8628-84F55AFE68A9}" name="effsize" dataDxfId="36"/>
     <tableColumn id="5" xr3:uid="{3DD34CC7-77B2-4C01-8B92-354204D3A167}" name="transcript"/>
     <tableColumn id="6" xr3:uid="{AA6A426E-3EEC-4C1B-A851-B1613FE1F32D}" name="n1"/>
     <tableColumn id="7" xr3:uid="{B807BE3C-30DA-4210-97DB-06BD3037E14C}" name="n2"/>
@@ -1113,7 +1106,7 @@
     <tableColumn id="1" xr3:uid="{0CBDFDAA-DDBC-4B94-A0DC-AC4A37E63F39}" name=".y."/>
     <tableColumn id="2" xr3:uid="{E86D70F4-8F32-416E-98AB-5B35369FCDDC}" name="group1"/>
     <tableColumn id="3" xr3:uid="{42129267-B333-4DA0-A985-22DD2D508604}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{23543989-9DD5-412B-9262-62008DE5795E}" name="effsize" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{23543989-9DD5-412B-9262-62008DE5795E}" name="effsize" dataDxfId="35"/>
     <tableColumn id="5" xr3:uid="{6AAB81D8-69AE-48DE-9B78-88E98F4357F8}" name="transcript"/>
     <tableColumn id="6" xr3:uid="{ECA55696-777B-4A59-9E63-44A1FD49B68B}" name="n1"/>
     <tableColumn id="7" xr3:uid="{798F12DB-23E7-4406-83CA-724DEB10F6CF}" name="n2"/>
@@ -1130,7 +1123,7 @@
     <tableColumn id="1" xr3:uid="{211C0319-07FC-41C0-9950-9F699C820581}" name=".y."/>
     <tableColumn id="2" xr3:uid="{476E232F-6245-45CC-848C-384BD96FE61E}" name="group1"/>
     <tableColumn id="3" xr3:uid="{1E18BD82-A659-4116-991D-A226C814788D}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{4F46DBBC-5B2F-4C85-8B62-7D590A7B3080}" name="effsize" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4F46DBBC-5B2F-4C85-8B62-7D590A7B3080}" name="effsize" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{CBC08BA3-1750-4A57-A4AD-3F693A6E91E2}" name="transcript"/>
     <tableColumn id="6" xr3:uid="{5A053A48-99C6-4FB7-851E-3D927BCECD4D}" name="n1"/>
     <tableColumn id="7" xr3:uid="{DED7DADF-DE96-4550-9BF8-D6E2E48F4742}" name="n2"/>
@@ -1145,8 +1138,8 @@
   <autoFilter ref="V6:Z12" xr:uid="{A7F454D8-D315-434D-BD0F-0B457102C6B1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6C12A1BB-6B43-4E4A-B002-F4B623E749BB}" name="transcript"/>
-    <tableColumn id="2" xr3:uid="{A96A8D77-7FED-4FC6-895B-FF3CA16CF74E}" name="statistic" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{179C10FF-0512-46B5-9F06-8BDB0E5D38F8}" name="p.value" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A96A8D77-7FED-4FC6-895B-FF3CA16CF74E}" name="statistic" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{179C10FF-0512-46B5-9F06-8BDB0E5D38F8}" name="p.value" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{F6252C72-DC9A-43E9-AD56-AFB90F515F75}" name="parameter"/>
     <tableColumn id="5" xr3:uid="{13C13664-0195-4C7D-B053-86FF9B28C438}" name="method"/>
   </tableColumns>
@@ -1159,8 +1152,8 @@
   <autoFilter ref="V17:Z23" xr:uid="{1058CF04-612F-4BA9-AAAC-126301438058}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{147F50D6-7848-450E-8A2D-D5A9E557D59F}" name="transcript"/>
-    <tableColumn id="2" xr3:uid="{47685B4A-DB9A-422F-B6A1-529F2F7709E8}" name="statistic" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{8E2FEC25-003B-49D3-BF03-C032261D9204}" name="p.value" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{47685B4A-DB9A-422F-B6A1-529F2F7709E8}" name="statistic" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{8E2FEC25-003B-49D3-BF03-C032261D9204}" name="p.value" dataDxfId="30"/>
     <tableColumn id="4" xr3:uid="{1CF85DB7-FE77-4D00-87B2-2C34236BD85B}" name="parameter"/>
     <tableColumn id="5" xr3:uid="{14F0FF2F-E7D5-4EF5-9A27-D211470A7050}" name="method"/>
   </tableColumns>
@@ -1175,8 +1168,8 @@
     <tableColumn id="1" xr3:uid="{4383A832-E63B-47FF-A375-7ACE5EA2D49F}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{40FBF388-60C4-4802-BAE1-485326670242}" name="df1"/>
     <tableColumn id="3" xr3:uid="{6E9C555C-06CC-4E39-AF33-63E5974F32B1}" name="df2"/>
-    <tableColumn id="4" xr3:uid="{D3F1E596-0F66-45FB-90D4-952E1869BCFC}" name="statistic" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{9B973FD0-26AF-41E5-9CC4-C3256AF4FE67}" name="p" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{D3F1E596-0F66-45FB-90D4-952E1869BCFC}" name="statistic" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{9B973FD0-26AF-41E5-9CC4-C3256AF4FE67}" name="p" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1501,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCA17F3-EFEE-45C1-AA37-760F81D3E9B0}">
   <dimension ref="A1:AY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL34" sqref="AL34"/>
+    <sheetView tabSelected="1" topLeftCell="AQ6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AY18" sqref="AY18:AY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,103 +1524,103 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
     </row>
-    <row r="5" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AK5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AT5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J6" t="s">
@@ -1749,19 +1742,19 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>0.35994732800000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.38563314700000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.37760675510000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>0.77346789999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>0.357287089</v>
       </c>
       <c r="J7" t="s">
@@ -1773,10 +1766,10 @@
       <c r="L7">
         <v>6</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>0.27290150000000002</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <v>0.62011068999999996</v>
       </c>
       <c r="P7" t="s">
@@ -1788,19 +1781,19 @@
       <c r="R7">
         <v>6</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="1">
         <v>2.2229289999999999E-2</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="1">
         <v>0.88636384000000001</v>
       </c>
       <c r="V7" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="1">
         <v>9.5493400000000006E-2</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="1">
         <v>0.75730626000000001</v>
       </c>
       <c r="Y7">
@@ -1818,7 +1811,7 @@
       <c r="AD7" t="s">
         <v>36</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="1">
         <v>0.2041241</v>
       </c>
       <c r="AF7" t="s">
@@ -1842,7 +1835,7 @@
       <c r="AM7" t="s">
         <v>36</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="1">
         <v>-0.20189314999999999</v>
       </c>
       <c r="AO7" t="s">
@@ -1866,13 +1859,13 @@
       <c r="AV7" t="s">
         <v>36</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AW7" s="1">
         <v>0.67716535</v>
       </c>
-      <c r="AX7" s="3">
+      <c r="AX7" s="1">
         <v>0.72440939999999998</v>
       </c>
-      <c r="AY7" s="7" t="s">
+      <c r="AY7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1883,19 +1876,19 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>9.3142740000000009E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>4.0732490000000001E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>7.7367970000000001E-4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>0.77346789999999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>0.13788256300000001</v>
       </c>
       <c r="J8" t="s">
@@ -1907,10 +1900,10 @@
       <c r="L8">
         <v>6</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>0.76093370000000005</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>0.41657403999999998</v>
       </c>
       <c r="P8" t="s">
@@ -1922,19 +1915,19 @@
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="1">
         <v>0.18287508999999999</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="1">
         <v>0.68383656000000004</v>
       </c>
       <c r="V8" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="1">
         <v>0.48586960000000001</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="1">
         <v>0.48577559999999997</v>
       </c>
       <c r="Y8">
@@ -1952,7 +1945,7 @@
       <c r="AD8" t="s">
         <v>36</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="1">
         <v>0.1169268</v>
       </c>
       <c r="AF8" t="s">
@@ -1976,7 +1969,7 @@
       <c r="AM8" t="s">
         <v>36</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="1">
         <v>-7.6005760000000006E-2</v>
       </c>
       <c r="AO8" t="s">
@@ -2000,13 +1993,13 @@
       <c r="AV8" t="s">
         <v>36</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AW8" s="1">
         <v>0.72440945000000001</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AX8" s="1">
         <v>0.72440939999999998</v>
       </c>
-      <c r="AY8" s="7" t="s">
+      <c r="AY8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2017,19 +2010,19 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>3.5640120000000001E-3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>4.0732490000000001E-3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>4.1816066499999999E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>0.1699774</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>9.3499380000000003E-3</v>
       </c>
       <c r="J9" t="s">
@@ -2041,10 +2034,10 @@
       <c r="L9">
         <v>6</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>5.1773201000000002</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="1">
         <v>6.3199850000000002E-2</v>
       </c>
       <c r="P9" t="s">
@@ -2056,19 +2049,19 @@
       <c r="R9">
         <v>6</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="1">
         <v>2.0459961600000001</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="1">
         <v>0.20255417000000001</v>
       </c>
       <c r="V9" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="1">
         <v>2.8511983999999999</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="1">
         <v>9.1305849999999994E-2</v>
       </c>
       <c r="Y9">
@@ -2086,7 +2079,7 @@
       <c r="AD9" t="s">
         <v>36</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="1">
         <v>0.2041241</v>
       </c>
       <c r="AF9" t="s">
@@ -2110,7 +2103,7 @@
       <c r="AM9" t="s">
         <v>36</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="1">
         <v>0.69224209000000003</v>
       </c>
       <c r="AO9" t="s">
@@ -2134,13 +2127,13 @@
       <c r="AV9" t="s">
         <v>36</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="AW9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AX9" s="3">
+      <c r="AX9" s="1">
         <v>0.72440939999999998</v>
       </c>
-      <c r="AY9" s="7" t="s">
+      <c r="AY9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2151,19 +2144,19 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>0.11930921799999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0.12956784099999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0.32982670079999998</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>0.77346789999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>0.357287089</v>
       </c>
       <c r="J10" t="s">
@@ -2175,10 +2168,10 @@
       <c r="L10">
         <v>6</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>9.3672533999999992</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>2.2207999999999999E-2</v>
       </c>
       <c r="P10" t="s">
@@ -2190,19 +2183,19 @@
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="1">
         <v>5.9970377499999996</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <v>4.9866199999999999E-2</v>
       </c>
       <c r="V10" t="s">
         <v>13</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="1">
         <v>1.746505</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="1">
         <v>0.18631671</v>
       </c>
       <c r="Y10">
@@ -2220,7 +2213,7 @@
       <c r="AD10" t="s">
         <v>36</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="1">
         <v>0.51031040000000005</v>
       </c>
       <c r="AF10" t="s">
@@ -2232,7 +2225,7 @@
       <c r="AH10">
         <v>4</v>
       </c>
-      <c r="AI10" s="6" t="s">
+      <c r="AI10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK10" t="s">
@@ -2244,7 +2237,7 @@
       <c r="AM10" t="s">
         <v>36</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="1">
         <v>-1.07390845</v>
       </c>
       <c r="AO10" t="s">
@@ -2256,7 +2249,7 @@
       <c r="AQ10">
         <v>4</v>
       </c>
-      <c r="AR10" s="6" t="s">
+      <c r="AR10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT10" t="s">
@@ -2268,13 +2261,13 @@
       <c r="AV10" t="s">
         <v>36</v>
       </c>
-      <c r="AW10" s="3">
+      <c r="AW10" s="1">
         <v>0.15748031000000001</v>
       </c>
-      <c r="AX10" s="3">
+      <c r="AX10" s="1">
         <v>0.4724409</v>
       </c>
-      <c r="AY10" s="7" t="s">
+      <c r="AY10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2285,19 +2278,19 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>0.54894272399999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.50444252099999998</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0.36062115929999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>0.77346789999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>0.50032047599999996</v>
       </c>
       <c r="J11" t="s">
@@ -2309,10 +2302,10 @@
       <c r="L11">
         <v>6</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>0.33041409999999999</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="1">
         <v>0.58630667000000003</v>
       </c>
       <c r="P11" t="s">
@@ -2324,19 +2317,19 @@
       <c r="R11">
         <v>6</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="1">
         <v>0.46012189999999997</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="1">
         <v>0.52285287000000003</v>
       </c>
       <c r="V11" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="1">
         <v>0.70928670000000005</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="1">
         <v>0.39968070999999999</v>
       </c>
       <c r="Y11">
@@ -2354,7 +2347,7 @@
       <c r="AD11" t="s">
         <v>36</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="1">
         <v>0.30618620000000002</v>
       </c>
       <c r="AF11" t="s">
@@ -2378,7 +2371,7 @@
       <c r="AM11" t="s">
         <v>36</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="1">
         <v>-0.50432946999999995</v>
       </c>
       <c r="AO11" t="s">
@@ -2402,13 +2395,13 @@
       <c r="AV11" t="s">
         <v>36</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW11" s="1">
         <v>0.42125984</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="AX11" s="1">
         <v>0.72440939999999998</v>
       </c>
-      <c r="AY11" s="7" t="s">
+      <c r="AY11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2419,19 +2412,19 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>0.35994732800000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>0.38563314700000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0.37760675510000002</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>0.77346789999999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>0.357287089</v>
       </c>
       <c r="J12" t="s">
@@ -2443,10 +2436,10 @@
       <c r="L12">
         <v>6</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>8.3154079000000003</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>2.7924399999999999E-2</v>
       </c>
       <c r="P12" t="s">
@@ -2458,19 +2451,19 @@
       <c r="R12">
         <v>6</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="1">
         <v>7.3269013999999997</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="1">
         <v>3.5254559999999997E-2</v>
       </c>
       <c r="V12" t="s">
         <v>15</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="1">
         <v>2.8691415</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="1">
         <v>9.0293020000000002E-2</v>
       </c>
       <c r="Y12">
@@ -2488,7 +2481,7 @@
       <c r="AD12" t="s">
         <v>36</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="1">
         <v>0.71443449999999997</v>
       </c>
       <c r="AF12" t="s">
@@ -2500,7 +2493,7 @@
       <c r="AH12">
         <v>4</v>
       </c>
-      <c r="AI12" s="6" t="s">
+      <c r="AI12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK12" t="s">
@@ -2512,7 +2505,7 @@
       <c r="AM12" t="s">
         <v>36</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN12" s="1">
         <v>-1.9313948599999999</v>
       </c>
       <c r="AO12" t="s">
@@ -2524,7 +2517,7 @@
       <c r="AQ12">
         <v>4</v>
       </c>
-      <c r="AR12" s="6" t="s">
+      <c r="AR12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT12" t="s">
@@ -2536,114 +2529,114 @@
       <c r="AV12" t="s">
         <v>36</v>
       </c>
-      <c r="AW12" s="3">
+      <c r="AW12" s="1">
         <v>4.3307089999999999E-2</v>
       </c>
-      <c r="AX12" s="3">
+      <c r="AX12" s="1">
         <v>0.25984249999999998</v>
       </c>
-      <c r="AY12" s="7" t="s">
+      <c r="AY12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
     </row>
-    <row r="16" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AB16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AK16" s="5" t="s">
+      <c r="AK16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AT16" s="5" t="s">
+      <c r="AT16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
@@ -2765,19 +2758,19 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>0.14857809999999999</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0.1579049139</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>0.73614650000000004</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J18" t="s">
@@ -2789,10 +2782,10 @@
       <c r="L18">
         <v>5</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>0.33661570000000002</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="1">
         <v>0.58695218999999998</v>
       </c>
       <c r="P18" t="s">
@@ -2804,19 +2797,19 @@
       <c r="R18">
         <v>5</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="1">
         <v>4.9624840000000003E-2</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="1">
         <v>0.83253160000000004</v>
       </c>
       <c r="V18" t="s">
         <v>10</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="1">
         <v>0.15702150000000001</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="1">
         <v>0.69191367000000004</v>
       </c>
       <c r="Y18">
@@ -2834,7 +2827,7 @@
       <c r="AD18" t="s">
         <v>36</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="1">
         <v>0.80178369999999999</v>
       </c>
       <c r="AF18" t="s">
@@ -2846,7 +2839,7 @@
       <c r="AH18">
         <v>4</v>
       </c>
-      <c r="AI18" s="6" t="s">
+      <c r="AI18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK18" t="s">
@@ -2858,7 +2851,7 @@
       <c r="AM18" t="s">
         <v>36</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AN18" s="1">
         <v>7.0527917000000002</v>
       </c>
       <c r="AO18" t="s">
@@ -2870,7 +2863,7 @@
       <c r="AQ18">
         <v>4</v>
       </c>
-      <c r="AR18" s="6" t="s">
+      <c r="AR18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT18" t="s">
@@ -2882,13 +2875,13 @@
       <c r="AV18" t="s">
         <v>36</v>
       </c>
-      <c r="AW18" s="3">
+      <c r="AW18" s="1">
         <v>3.9370079999999997E-3</v>
       </c>
-      <c r="AX18" s="3">
+      <c r="AX18" s="1">
         <v>1.181102E-2</v>
       </c>
-      <c r="AY18" s="6" t="s">
+      <c r="AY18" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2899,19 +2892,19 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>8.9619110000000005E-5</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>1.753333E-4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>0.28090470000000001</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
@@ -2923,10 +2916,10 @@
       <c r="L19">
         <v>5</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <v>5.7436726</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <v>6.1880690000000002E-2</v>
       </c>
       <c r="P19" t="s">
@@ -2938,19 +2931,19 @@
       <c r="R19">
         <v>5</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="1">
         <v>0.62839281999999996</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="1">
         <v>0.46388099999999999</v>
       </c>
       <c r="V19" t="s">
         <v>11</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="1">
         <v>0.93171709999999996</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="1">
         <v>0.33441713000000001</v>
       </c>
       <c r="Y19">
@@ -2968,7 +2961,7 @@
       <c r="AD19" t="s">
         <v>36</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19" s="1">
         <v>0.2041241</v>
       </c>
       <c r="AF19" t="s">
@@ -2992,7 +2985,7 @@
       <c r="AM19" t="s">
         <v>36</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN19" s="1">
         <v>-0.61972470000000002</v>
       </c>
       <c r="AO19" t="s">
@@ -3016,13 +3009,13 @@
       <c r="AV19" t="s">
         <v>36</v>
       </c>
-      <c r="AW19" s="3">
+      <c r="AW19" s="1">
         <v>0.89763779499999996</v>
       </c>
-      <c r="AX19" s="3">
+      <c r="AX19" s="1">
         <v>0.89763780000000004</v>
       </c>
-      <c r="AY19" s="7" t="s">
+      <c r="AY19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3033,19 +3026,19 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>4.7804120000000004E-3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>2.86311894E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>0.36091259999999997</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J20" t="s">
@@ -3057,10 +3050,10 @@
       <c r="L20">
         <v>5</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>5.6315058000000002</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>6.3708979999999998E-2</v>
       </c>
       <c r="P20" t="s">
@@ -3072,19 +3065,19 @@
       <c r="R20">
         <v>5</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <v>1.1398320099999999</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="1">
         <v>0.33450049999999998</v>
       </c>
       <c r="V20" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="1">
         <v>1.8860157</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="1">
         <v>0.16965199</v>
       </c>
       <c r="Y20">
@@ -3102,7 +3095,7 @@
       <c r="AD20" t="s">
         <v>36</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="1">
         <v>0.80178369999999999</v>
       </c>
       <c r="AF20" t="s">
@@ -3114,7 +3107,7 @@
       <c r="AH20">
         <v>4</v>
       </c>
-      <c r="AI20" s="6" t="s">
+      <c r="AI20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK20" t="s">
@@ -3126,7 +3119,7 @@
       <c r="AM20" t="s">
         <v>36</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN20" s="1">
         <v>-1.2397697000000001</v>
       </c>
       <c r="AO20" t="s">
@@ -3138,7 +3131,7 @@
       <c r="AQ20">
         <v>4</v>
       </c>
-      <c r="AR20" s="6" t="s">
+      <c r="AR20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT20" t="s">
@@ -3150,14 +3143,14 @@
       <c r="AV20" t="s">
         <v>36</v>
       </c>
-      <c r="AW20" s="3">
+      <c r="AW20" s="1">
         <v>4.3307087000000001E-2</v>
       </c>
-      <c r="AX20" s="3">
+      <c r="AX20" s="1">
         <v>5.1968500000000001E-2</v>
       </c>
-      <c r="AY20" s="7" t="s">
-        <v>45</v>
+      <c r="AY20" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.25">
@@ -3167,19 +3160,19 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>0.2237006</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>0.64894770499999999</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>0.73614650000000004</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J21" t="s">
@@ -3191,10 +3184,10 @@
       <c r="L21">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>3.4662096999999998</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>0.12169272</v>
       </c>
       <c r="P21" t="s">
@@ -3206,19 +3199,19 @@
       <c r="R21">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="1">
         <v>0.97503461000000002</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="1">
         <v>0.36877120000000002</v>
       </c>
       <c r="V21" t="s">
         <v>13</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="1">
         <v>0.91758169999999994</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="1">
         <v>0.33811074000000002</v>
       </c>
       <c r="Y21">
@@ -3236,7 +3229,7 @@
       <c r="AD21" t="s">
         <v>36</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="1">
         <v>0.80178369999999999</v>
       </c>
       <c r="AF21" t="s">
@@ -3248,7 +3241,7 @@
       <c r="AH21">
         <v>4</v>
       </c>
-      <c r="AI21" s="6" t="s">
+      <c r="AI21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK21" t="s">
@@ -3260,7 +3253,7 @@
       <c r="AM21" t="s">
         <v>36</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AN21" s="1">
         <v>-2.2122489999999999</v>
       </c>
       <c r="AO21" t="s">
@@ -3272,7 +3265,7 @@
       <c r="AQ21">
         <v>4</v>
       </c>
-      <c r="AR21" s="6" t="s">
+      <c r="AR21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT21" t="s">
@@ -3284,13 +3277,13 @@
       <c r="AV21" t="s">
         <v>36</v>
       </c>
-      <c r="AW21" s="3">
+      <c r="AW21" s="1">
         <v>3.9370079999999997E-3</v>
       </c>
-      <c r="AX21" s="3">
+      <c r="AX21" s="1">
         <v>1.181102E-2</v>
       </c>
-      <c r="AY21" s="6" t="s">
+      <c r="AY21" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3301,19 +3294,19 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>0.55443609999999999</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>0.73830721499999996</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>0.73614650000000004</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J22" t="s">
@@ -3325,10 +3318,10 @@
       <c r="L22">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>2.3221259999999999</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>0.18805087000000001</v>
       </c>
       <c r="P22" t="s">
@@ -3340,19 +3333,19 @@
       <c r="R22">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="1">
         <v>2.17843418</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="1">
         <v>0.19998260000000001</v>
       </c>
       <c r="V22" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="1">
         <v>1.8978161</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="1">
         <v>0.16832296999999999</v>
       </c>
       <c r="Y22">
@@ -3370,7 +3363,7 @@
       <c r="AD22" t="s">
         <v>36</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="1">
         <v>0.80178369999999999</v>
       </c>
       <c r="AF22" t="s">
@@ -3382,7 +3375,7 @@
       <c r="AH22">
         <v>4</v>
       </c>
-      <c r="AI22" s="6" t="s">
+      <c r="AI22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK22" t="s">
@@ -3394,7 +3387,7 @@
       <c r="AM22" t="s">
         <v>36</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN22" s="1">
         <v>-2.6459305999999998</v>
       </c>
       <c r="AO22" t="s">
@@ -3406,7 +3399,7 @@
       <c r="AQ22">
         <v>4</v>
       </c>
-      <c r="AR22" s="6" t="s">
+      <c r="AR22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT22" t="s">
@@ -3418,14 +3411,14 @@
       <c r="AV22" t="s">
         <v>36</v>
       </c>
-      <c r="AW22" s="3">
+      <c r="AW22" s="1">
         <v>2.7559054999999999E-2</v>
       </c>
-      <c r="AX22" s="3">
+      <c r="AX22" s="1">
         <v>5.1968500000000001E-2</v>
       </c>
-      <c r="AY22" s="7" t="s">
-        <v>45</v>
+      <c r="AY22" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.25">
@@ -3435,19 +3428,19 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>0.1435863</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>0.29122383740000002</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>0.73614650000000004</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J23" t="s">
@@ -3459,10 +3452,10 @@
       <c r="L23">
         <v>5</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <v>3.4055336999999999</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <v>0.12428018</v>
       </c>
       <c r="P23" t="s">
@@ -3474,19 +3467,19 @@
       <c r="R23">
         <v>5</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <v>2.1030572200000002</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="1">
         <v>0.2066973</v>
       </c>
       <c r="V23" t="s">
         <v>15</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="1">
         <v>4.0515065000000003</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="1">
         <v>4.4131940000000001E-2</v>
       </c>
       <c r="Y23">
@@ -3504,7 +3497,7 @@
       <c r="AD23" t="s">
         <v>36</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="1">
         <v>0.80178369999999999</v>
       </c>
       <c r="AF23" t="s">
@@ -3516,7 +3509,7 @@
       <c r="AH23">
         <v>4</v>
       </c>
-      <c r="AI23" s="6" t="s">
+      <c r="AI23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK23" t="s">
@@ -3528,7 +3521,7 @@
       <c r="AM23" t="s">
         <v>36</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AN23" s="1">
         <v>-4.8692903000000003</v>
       </c>
       <c r="AO23" t="s">
@@ -3540,7 +3533,7 @@
       <c r="AQ23">
         <v>4</v>
       </c>
-      <c r="AR23" s="6" t="s">
+      <c r="AR23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AT23" t="s">
@@ -3552,14 +3545,14 @@
       <c r="AV23" t="s">
         <v>36</v>
       </c>
-      <c r="AW23" s="3">
+      <c r="AW23" s="1">
         <v>4.3307087000000001E-2</v>
       </c>
-      <c r="AX23" s="3">
+      <c r="AX23" s="1">
         <v>5.1968500000000001E-2</v>
       </c>
-      <c r="AY23" s="7" t="s">
-        <v>45</v>
+      <c r="AY23" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3567,53 +3560,53 @@
     <mergeCell ref="A3:AY3"/>
     <mergeCell ref="A14:AY14"/>
   </mergeCells>
-  <conditionalFormatting sqref="D18:H23">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="D7:H12">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:H12">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="D18:H23">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N12">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N23">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T12">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:T23">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:X12">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:X23">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW7:AX12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW18:AX23">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW7:AX12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
